--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmannaz/Projects/React/wedeliver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318DB2D1-6EEC-7A43-98BD-EAEA870EABE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEA2B29-9A6E-1B46-99B9-A36F5052C3F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{E3804DAF-5C4F-3248-88F0-B3B86E534EEC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Sl. No</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Cart additions shows message after redirecting</t>
+  </si>
+  <si>
+    <t>Implement search on Home Page</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,8 +596,12 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>

--- a/Issues.xlsx
+++ b/Issues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmannaz/Projects/React/wedeliver/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEA2B29-9A6E-1B46-99B9-A36F5052C3F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1708283E-FA74-864F-B364-49860D13D82F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{E3804DAF-5C4F-3248-88F0-B3B86E534EEC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Sl. No</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>Implement search on Home Page</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Open</t>
   </si>
 </sst>
 </file>
@@ -479,217 +488,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{471AB11C-85AF-3349-B610-A98B4A1035B0}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
-    <col min="2" max="8" width="100.33203125" customWidth="1"/>
+    <col min="2" max="2" width="100.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="1" customWidth="1"/>
+    <col min="4" max="8" width="100.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
-    </row>
-    <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
-    </row>
-    <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
-    </row>
-    <row r="23" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
-    </row>
-    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
-    </row>
-    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
+      <c r="C36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
